--- a/Mini_Project/Project_4/벅스,멜론,지니_TOP_100_통합데이터.xlsx
+++ b/Mini_Project/Project_4/벅스,멜론,지니_TOP_100_통합데이터.xlsx
@@ -1461,7 +1461,7 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
